--- a/biology/Mycologie/Laccaria/Laccaria.xlsx
+++ b/biology/Mycologie/Laccaria/Laccaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laccaria (nom vernaculaire, les laccaires), est un genre de champignons basidiomycètes de la famille des Hydnangiaceae composé d'environ 75 espèces que l'on peut trouver dans les régions tropicales mais aussi tempérées du monde. Ils sont souvent utilisés comme des systèmes expérimentaux pour les études de symbioses ectomycorrhiziennes.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils étaient auparavant classés parmi les clitocybes.
 Leur nom provient du latin lacca, "laque", en référence à leur aspect uni et lisse. 
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit pour les espèces européennes de petits champignons hauts sur tige pour des sporophores de taille modeste, souvent aux lames espacées, de couleurs variables, généralement comestibles mais présentant des risques de confusion avec d'autres espèces.
 </t>
@@ -574,7 +590,9 @@
           <t>Classification linnéenne du genre Laccaria</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Laccaria alba
 Laccaria amethystea
@@ -630,7 +648,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Référence Index Fungorum : Laccaria Berk. &amp; Broome (1883) (+ liste espèces) (+ MycoBank)</t>
         </is>
